--- a/Power BI入门数据源/练习文件夹/2月会员信息.xlsx
+++ b/Power BI入门数据源/练习文件夹/2月会员信息.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\【Works】\教学工作\PowerBI进阶\temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\myPython\miniweb\powerbi\LL_PowerBI\Power BI入门数据源\练习文件夹\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9E7B2EC-FAD1-4C34-819C-8DC3A0267BB9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11670"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="65">
   <si>
     <t>姓名和身份证号码</t>
   </si>
@@ -222,17 +223,13 @@
   </si>
   <si>
     <t>山东省 济南市 天桥区</t>
-  </si>
-  <si>
-    <t>2018年2月会员信息表</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -253,22 +250,6 @@
       <sz val="9"/>
       <name val="等线"/>
       <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -295,7 +276,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -325,51 +306,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -444,44 +380,35 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -516,7 +443,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -794,402 +721,391 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.25" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9" style="13"/>
-    <col min="4" max="4" width="47.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.21875" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="10"/>
+    <col min="4" max="4" width="47.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="10"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="8">
+        <v>38</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8">
+        <v>39</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="8">
+        <v>30</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8">
+        <v>39</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8">
+        <v>38</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8">
+        <v>26</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="8"/>
+      <c r="D16" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="8"/>
+      <c r="D17" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C18" s="8">
+        <v>41</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11">
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="11" t="s">
+      <c r="B19" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="11">
-        <v>30</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11">
+      <c r="C19" s="8">
         <v>39</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11">
-        <v>38</v>
-      </c>
-      <c r="D11" s="2" t="s">
+      <c r="D19" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8">
         <v>24</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+      <c r="D20" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8">
+        <v>35</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" s="8">
+        <v>40</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="8">
+        <v>32</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="8">
         <v>25</v>
       </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11">
-        <v>26</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="11" t="s">
+      <c r="D27" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B29" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="11"/>
-      <c r="D17" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
+      <c r="C29" s="8"/>
+      <c r="D29" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8">
+        <v>40</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" s="9">
         <v>36</v>
       </c>
-      <c r="B18" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="11"/>
-      <c r="D18" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C19" s="11">
-        <v>41</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" s="11">
-        <v>39</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11">
-        <v>24</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11">
-        <v>35</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B26" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C26" s="11">
-        <v>40</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B27" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C27" s="11">
-        <v>32</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B28" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C28" s="11">
-        <v>25</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B30" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C30" s="11"/>
-      <c r="D30" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11">
-        <v>40</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B32" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C32" s="12">
-        <v>36</v>
-      </c>
-      <c r="D32" s="4" t="s">
+      <c r="D31" s="4" t="s">
         <v>64</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
-  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
